--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\utils\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FCE1E6-3CBD-4E59-AC6E-60F6D88250C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA9B01-4702-4BA0-BF7A-8BDDA8DD7443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="3135" windowWidth="28800" windowHeight="15435" xr2:uid="{683CCD02-B755-4CAA-BCC1-C1FE2EC9E195}"/>
   </bookViews>
@@ -31,17 +31,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>f'd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han MeiMei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Lei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,52 +433,88 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>2</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <f>SUM(E2:G2)</f>
+        <v>235</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>4</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>SUM(E3:G3)</f>
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>